--- a/data/Santa Cruz.xlsx
+++ b/data/Santa Cruz.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>02/07/2020</t>
+          <t>03/07/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">

--- a/data/Santa Cruz.xlsx
+++ b/data/Santa Cruz.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/07/2020</t>
+          <t>02/07/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">

--- a/data/Santa Cruz.xlsx
+++ b/data/Santa Cruz.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F15" t="n">

--- a/data/Santa Cruz.xlsx
+++ b/data/Santa Cruz.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta Solar Santa Cruz</t>
+          <t>Mejoras al Sistema de Tratamiento de RILes Bodega Clos Apalta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Clos Apalta SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>30/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148365616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158952223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optimización Planta Sunsweet</t>
+          <t>Planta Solar Santa Cruz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Agricola Sun Limitada</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3250</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148365616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta Solar Santa Cruz</t>
+          <t>Optimización Planta Sunsweet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Grupo Energy inversiones Spa</t>
+          <t>Agricola Sun Limitada</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147453318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>02/07/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147117003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147453318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Servicio de Bodegajes de suspel y no peligrosas en bodegas adyacentes</t>
+          <t>Planta Solar Santa Cruz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>New Tech Agro S.A.</t>
+          <t>Grupo Energy inversiones Spa</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>350</v>
+        <v>6500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13/03/2020</t>
+          <t>02/07/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145894867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147117003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN DE PRODUCTOS MAQUILADOS, Y NORMALIZACIÓN PLANTA EL BOLDAL</t>
+          <t>Servicio de Bodegajes de suspel y no peligrosas en bodegas adyacentes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17/07/2018</t>
+          <t>13/03/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140909394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145894867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>AUMENTO DE PRODUCCIÓN DE PRODUCTOS MAQUILADOS, Y NORMALIZACIÓN PLANTA EL BOLDAL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>New Tech Agro S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>17/07/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140909394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,21 +779,21 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Santa Cruz</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1100</v>
+        <v>37</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132410104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Santa Cruz</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>1100</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>22/05/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132410104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Diversificación Mejora Ambiental y Normalización de Planta el Boldal</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>New Tech Agro S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03/08/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131654067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Diversificación, Mejora Ambiental y Normalización de Planta el Boldal</t>
+          <t>Diversificación Mejora Ambiental y Normalización de Planta el Boldal</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,21 +1019,21 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>457</v>
+        <v>356</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13/07/2016</t>
+          <t>03/08/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131581894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131654067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico La Lajuela</t>
+          <t>Diversificación, Mejora Ambiental y Normalización de Planta el Boldal</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>New Tech Agro S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>13000</v>
+        <v>457</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>13/07/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131496825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131581894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación de la planta de tratamiento de riles de Viña Neyen</t>
+          <t>Parque Solar Fotovoltaico La Lajuela</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ALTO DE CASABLANCA S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>13000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/02/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131186823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131496825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>22/02/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131098449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131186823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento, Isla del Guindo Chomedahue</t>
+          <t>Modificación de la planta de tratamiento de riles de Viña Neyen</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Santa Cruz</t>
+          <t>ALTO DE CASABLANCA S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131098449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos para Riego Tecnificado de Vides</t>
+          <t>Planta de Tratamiento, Isla del Guindo Chomedahue</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Apalta Limitada</t>
+          <t>Ilustre Municipalidad de Santa Cruz</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130398781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos para Riego Tecnificado de Vides</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130398781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sistema de Disposición de RILes al Suelo</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/04/2014</t>
+          <t>23/03/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129403850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>21/04/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129120974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129403850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SALA DE VENTAS Y BODEGA SUCURSAL COAGRA SANTA CRUZ</t>
+          <t>Sistema de Disposición de RILes al Suelo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>COAGRA S.A.</t>
+          <t>Sociedad de Inversiones y Servicios Apalta Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17/12/2013</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129120974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/12/2013</t>
+          <t>17/12/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128896777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sistema de Disposición de Residuos Industriales Líquidos al Suelo</t>
+          <t>SALA DE VENTAS Y BODEGA SUCURSAL COAGRA SANTA CRUZ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Apalta Limitada</t>
+          <t>COAGRA S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>02/10/2013</t>
+          <t>10/12/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128634948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128896777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Sistema de Disposición de Residuos Industriales Líquidos al Suelo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sociedad de Inversiones y Servicios Apalta Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>02/10/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128634948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Riles y a la disposición del efluente a Riego</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ALTO DE CASABLANCA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/10/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7465875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación al Sistema de Tratamiento de Riles y a la disposición del efluente a Riego</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>ALTO DE CASABLANCA S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>26/10/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7465875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta de Secadores Cunaquito - Fase II</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Agricola Sun Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>28/02/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Planta de Secadores Cunaquito - Fase II</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agricola Sun Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>13700</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>28/02/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Optimización Sistema de tratamiento y disposición en suelo de los residuos industriales líquidos de Viña Nuevo Mundo S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Viña del Nuevo Mundo S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3635967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Laurence Real .</t>
+          <t>Viña del Nuevo Mundo S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/03/2009</t>
+          <t>18/03/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3612110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3635967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Optimización Sistema de tratamiento y disposición en suelo de los residuos industriales líquidos de Viña Nuevo Mundo S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Laurence Real .</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>06/03/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3612110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Canales Primarios, Nilahue (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>8521</v>
+        <v>500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2626812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos de Viña La Pancora Ltda. (e-seia)</t>
+          <t>Canales Primarios, Nilahue (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Viña Apaltagua Limitada</t>
+          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>500</v>
+        <v>8521</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2626812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos de Viña La Pancora Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Viña Apaltagua Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,21 +2843,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Optimización Sistema de Tratamiento de Riles, Bodega Cunaco (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Lapostolle Winnes SpA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1831772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Optimización Sistema de Tratamiento de Riles, Bodeguita Apalta (e-seia)</t>
+          <t>Optimización Sistema de Tratamiento de Riles, Bodega Cunaco (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Clos Apalta SpA</t>
+          <t>Lapostolle Winnes SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>17/11/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1811372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1831772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Obras de Regadío Embalse Convento Viejo - Proyecto Túnel La Lajuela (e-seia)</t>
+          <t>Optimización Sistema de Tratamiento de Riles, Bodeguita Apalta (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
+          <t>Clos Apalta SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6500</v>
+        <v>9</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>17/11/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1811372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de Riles (e-seia)</t>
+          <t>Obras de Regadío Embalse Convento Viejo - Proyecto Túnel La Lajuela (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ALTO DE CASABLANCA S.A.</t>
+          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>93</v>
+        <v>6500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21/09/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR DE SANTA CRUZ (e-seia)</t>
+          <t>Sistema de tratamiento de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE SANTA CRUZ</t>
+          <t>ALTO DE CASABLANCA S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/08/2006</t>
+          <t>21/09/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1627797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR DE SANTA CRUZ (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ILUSTRE MUNICIPALIDAD DE SANTA CRUZ</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>16/08/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1627797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo Viña Viu Manent y Cía. Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Viu Manent y Cía.Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>21/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo Viña Viu Manent y Cía. Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Viu Manent y Cía.Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>21/10/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sistema de tratamiento de riles bodeguita apalta, casa lapostolle, sexta region (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jose Manuel Rogers Squella</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>sistema de tratamiento de riles bodeguita apalta, casa lapostolle, sexta region (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Jose Manuel Rogers Squella</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>03/08/2005</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Manejo de Riles bodega de Vinos San José de Apalta (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Viña Apaltagua Limitada</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/10/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=109723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Convento Viejo Etapa II</t>
+          <t>Manejo de Riles bodega de Vinos San José de Apalta (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Viña Apaltagua Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>50300</v>
+        <v>1750</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>14/08/2003</t>
+          <t>29/10/2003</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=109723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos de Colchagua</t>
+          <t>Convento Viejo Etapa II</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>STARCO S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2000</v>
+        <v>50300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>14/08/2003</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,12 +3880,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Viña Montes Bodega Apalta (e-seia)</t>
+          <t>Centro de Manejo de Residuos de Colchagua</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>STARCO S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES Bodeguita APALTA (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Viña Montes Bodega Apalta (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Clos Apalta SpA</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>7</v>
+        <v>23000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>27/12/2002</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tratamiento y Depuración de las Aguas Residuales Líquidas de las Bodegas de la Viña Casa Lapostolle</t>
+          <t>Sistema de Tratamiento de RILES Bodeguita APALTA (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Lapostolle Winnes SpA</t>
+          <t>Clos Apalta SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12/09/2000</t>
+          <t>27/12/2002</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento y Disposición de Residuos Industriales Líquidos Viña Santa Laura</t>
+          <t>Tratamiento y Depuración de las Aguas Residuales Líquidas de las Bodegas de la Viña Casa Lapostolle</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Comercial Santa Laura S.A.</t>
+          <t>Lapostolle Winnes SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18/08/2000</t>
+          <t>12/09/2000</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,12 +4072,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Cementerio Santa Cruz Tercera Presentación</t>
+          <t>Sistema de Tratamiento y Disposición de Residuos Industriales Líquidos Viña Santa Laura</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>Comercial Santa Laura S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>18/08/2000</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Bodega Viníficadora San José de Apalta</t>
+          <t>Parque Cementerio Santa Cruz Tercera Presentación</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Viña Apaltagua Limitada</t>
+          <t>Inversiones Torre Alameda S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas para Santa Cruz</t>
+          <t>Bodega Viníficadora San José de Apalta</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Viña Apaltagua Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>18/06/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Parque Cementerio Santa Cruz (Segunda Presentación)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas para Santa Cruz</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>540</v>
+        <v>1500</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02/11/1998</t>
+          <t>18/06/1999</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Parque Cementerio Santa Cruz</t>
+          <t>Parque Cementerio Santa Cruz (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4283,21 +4283,21 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>29/01/1998</t>
+          <t>02/11/1998</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,43 +4312,91 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>Parque Cementerio Santa Cruz</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Inversiones Torre Alameda S.A.</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>520</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>29/01/1998</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=724&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
           <t>Explotación Mina de Caliza Sector La Lajuela-Santa Cruz</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>Cementos Bio Bio S.A.C.I</t>
         </is>
       </c>
-      <c r="F83" t="n">
+      <c r="F84" t="n">
         <v>2000</v>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>28/05/1997</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=82&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>Santa Cruz</t>
         </is>

--- a/data/Santa Cruz.xlsx
+++ b/data/Santa Cruz.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>02/07/2020</t>
+          <t>03/07/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/data/Santa Cruz.xlsx
+++ b/data/Santa Cruz.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/03/2023</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Santa Cruz.xlsx
+++ b/data/Santa Cruz.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>21/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Santa Cruz.xlsx
+++ b/data/Santa Cruz.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mejoras al Sistema de Tratamiento de RILes Bodega Clos Apalta</t>
+          <t>Extracción Mecanizada de Áridos en río Tinguiririca, comunas de Nancagua y Santa Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Clos Apalta SpA</t>
+          <t>Maquinarias Tierra del Valle Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/04/2023</t>
+          <t>05/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158952223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159176557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta Solar Santa Cruz</t>
+          <t>Mejoras al Sistema de Tratamiento de RILes Bodega Clos Apalta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Clos Apalta SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>21/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148365616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158952223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Optimización Planta Sunsweet</t>
+          <t>Planta Solar Santa Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Agricola Sun Limitada</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3250</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148365616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Planta Solar Santa Cruz</t>
+          <t>Optimización Planta Sunsweet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Grupo Energy inversiones Spa</t>
+          <t>Agricola Sun Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147453318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/07/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147117003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147453318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Servicio de Bodegajes de suspel y no peligrosas en bodegas adyacentes</t>
+          <t>Planta Solar Santa Cruz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>New Tech Agro S.A.</t>
+          <t>Grupo Energy inversiones Spa</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>350</v>
+        <v>6500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13/03/2020</t>
+          <t>03/07/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145894867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147117003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN DE PRODUCTOS MAQUILADOS, Y NORMALIZACIÓN PLANTA EL BOLDAL</t>
+          <t>Servicio de Bodegajes de suspel y no peligrosas en bodegas adyacentes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17/07/2018</t>
+          <t>13/03/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140909394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145894867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>AUMENTO DE PRODUCCIÓN DE PRODUCTOS MAQUILADOS, Y NORMALIZACIÓN PLANTA EL BOLDAL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>New Tech Agro S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>17/07/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140909394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,21 +827,21 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Santa Cruz</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1100</v>
+        <v>37</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132410104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Santa Cruz</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>37</v>
+        <v>1100</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>22/05/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132410104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Diversificación Mejora Ambiental y Normalización de Planta el Boldal</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>New Tech Agro S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>03/08/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131654067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Diversificación, Mejora Ambiental y Normalización de Planta el Boldal</t>
+          <t>Diversificación Mejora Ambiental y Normalización de Planta el Boldal</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,21 +1067,21 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>457</v>
+        <v>356</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13/07/2016</t>
+          <t>03/08/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131581894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131654067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico La Lajuela</t>
+          <t>Diversificación, Mejora Ambiental y Normalización de Planta el Boldal</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>New Tech Agro S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>13000</v>
+        <v>457</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>13/07/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131496825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131581894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación de la planta de tratamiento de riles de Viña Neyen</t>
+          <t>Parque Solar Fotovoltaico La Lajuela</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ALTO DE CASABLANCA S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>13000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/02/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131186823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131496825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>22/02/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131098449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131186823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento, Isla del Guindo Chomedahue</t>
+          <t>Modificación de la planta de tratamiento de riles de Viña Neyen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Santa Cruz</t>
+          <t>ALTO DE CASABLANCA S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131098449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos para Riego Tecnificado de Vides</t>
+          <t>Planta de Tratamiento, Isla del Guindo Chomedahue</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Apalta Limitada</t>
+          <t>Ilustre Municipalidad de Santa Cruz</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130398781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos para Riego Tecnificado de Vides</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130398781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sistema de Disposición de RILes al Suelo</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/04/2014</t>
+          <t>23/03/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129403850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>21/04/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129120974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129403850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SALA DE VENTAS Y BODEGA SUCURSAL COAGRA SANTA CRUZ</t>
+          <t>Sistema de Disposición de RILes al Suelo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>COAGRA S.A.</t>
+          <t>Sociedad de Inversiones y Servicios Apalta Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17/12/2013</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129120974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/12/2013</t>
+          <t>17/12/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128896777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sistema de Disposición de Residuos Industriales Líquidos al Suelo</t>
+          <t>SALA DE VENTAS Y BODEGA SUCURSAL COAGRA SANTA CRUZ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Apalta Limitada</t>
+          <t>COAGRA S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>02/10/2013</t>
+          <t>10/12/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128634948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128896777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Sistema de Disposición de Residuos Industriales Líquidos al Suelo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sociedad de Inversiones y Servicios Apalta Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>02/10/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128634948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Riles y a la disposición del efluente a Riego</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ALTO DE CASABLANCA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/10/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7465875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación al Sistema de Tratamiento de Riles y a la disposición del efluente a Riego</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>ALTO DE CASABLANCA S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>26/10/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7465875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta de Secadores Cunaquito - Fase II</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Agricola Sun Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>28/02/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Planta de Secadores Cunaquito - Fase II</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agricola Sun Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>13700</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>28/02/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Optimización Sistema de tratamiento y disposición en suelo de los residuos industriales líquidos de Viña Nuevo Mundo S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Viña del Nuevo Mundo S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3635967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Laurence Real .</t>
+          <t>Viña del Nuevo Mundo S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/03/2009</t>
+          <t>18/03/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3612110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3635967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Optimización Sistema de tratamiento y disposición en suelo de los residuos industriales líquidos de Viña Nuevo Mundo S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Laurence Real .</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>06/03/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3612110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Canales Primarios, Nilahue (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>8521</v>
+        <v>500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2626812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos de Viña La Pancora Ltda. (e-seia)</t>
+          <t>Canales Primarios, Nilahue (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Viña Apaltagua Limitada</t>
+          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>500</v>
+        <v>8521</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2626812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos de Viña La Pancora Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Viña Apaltagua Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,21 +2891,21 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Optimización Sistema de Tratamiento de Riles, Bodega Cunaco (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Lapostolle Winnes SpA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1831772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Optimización Sistema de Tratamiento de Riles, Bodeguita Apalta (e-seia)</t>
+          <t>Optimización Sistema de Tratamiento de Riles, Bodega Cunaco (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Clos Apalta SpA</t>
+          <t>Lapostolle Winnes SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17/11/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1811372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1831772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Obras de Regadío Embalse Convento Viejo - Proyecto Túnel La Lajuela (e-seia)</t>
+          <t>Optimización Sistema de Tratamiento de Riles, Bodeguita Apalta (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
+          <t>Clos Apalta SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6500</v>
+        <v>9</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>17/11/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1811372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de Riles (e-seia)</t>
+          <t>Obras de Regadío Embalse Convento Viejo - Proyecto Túnel La Lajuela (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ALTO DE CASABLANCA S.A.</t>
+          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>93</v>
+        <v>6500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/09/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR DE SANTA CRUZ (e-seia)</t>
+          <t>Sistema de tratamiento de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE SANTA CRUZ</t>
+          <t>ALTO DE CASABLANCA S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/08/2006</t>
+          <t>21/09/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1627797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR DE SANTA CRUZ (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ILUSTRE MUNICIPALIDAD DE SANTA CRUZ</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>16/08/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1627797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo Viña Viu Manent y Cía. Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Viu Manent y Cía.Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo Viña Viu Manent y Cía. Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Viu Manent y Cía.Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>21/10/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sistema de tratamiento de riles bodeguita apalta, casa lapostolle, sexta region (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Jose Manuel Rogers Squella</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>sistema de tratamiento de riles bodeguita apalta, casa lapostolle, sexta region (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Jose Manuel Rogers Squella</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>03/08/2005</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Manejo de Riles bodega de Vinos San José de Apalta (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Viña Apaltagua Limitada</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>29/10/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=109723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Convento Viejo Etapa II</t>
+          <t>Manejo de Riles bodega de Vinos San José de Apalta (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Viña Apaltagua Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>50300</v>
+        <v>1750</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>14/08/2003</t>
+          <t>29/10/2003</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=109723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos de Colchagua</t>
+          <t>Convento Viejo Etapa II</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>STARCO S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2000</v>
+        <v>50300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>14/08/2003</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,12 +3928,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Viña Montes Bodega Apalta (e-seia)</t>
+          <t>Centro de Manejo de Residuos de Colchagua</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>STARCO S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES Bodeguita APALTA (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Viña Montes Bodega Apalta (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Clos Apalta SpA</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>7</v>
+        <v>23000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>27/12/2002</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tratamiento y Depuración de las Aguas Residuales Líquidas de las Bodegas de la Viña Casa Lapostolle</t>
+          <t>Sistema de Tratamiento de RILES Bodeguita APALTA (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Lapostolle Winnes SpA</t>
+          <t>Clos Apalta SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>12/09/2000</t>
+          <t>27/12/2002</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento y Disposición de Residuos Industriales Líquidos Viña Santa Laura</t>
+          <t>Tratamiento y Depuración de las Aguas Residuales Líquidas de las Bodegas de la Viña Casa Lapostolle</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Comercial Santa Laura S.A.</t>
+          <t>Lapostolle Winnes SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/08/2000</t>
+          <t>12/09/2000</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Parque Cementerio Santa Cruz Tercera Presentación</t>
+          <t>Sistema de Tratamiento y Disposición de Residuos Industriales Líquidos Viña Santa Laura</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>Comercial Santa Laura S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>18/08/2000</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,12 +4168,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Bodega Viníficadora San José de Apalta</t>
+          <t>Parque Cementerio Santa Cruz Tercera Presentación</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Viña Apaltagua Limitada</t>
+          <t>Inversiones Torre Alameda S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas para Santa Cruz</t>
+          <t>Bodega Viníficadora San José de Apalta</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Viña Apaltagua Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18/06/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Parque Cementerio Santa Cruz (Segunda Presentación)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas para Santa Cruz</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>540</v>
+        <v>1500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02/11/1998</t>
+          <t>18/06/1999</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Parque Cementerio Santa Cruz</t>
+          <t>Parque Cementerio Santa Cruz (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4331,21 +4331,21 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>29/01/1998</t>
+          <t>02/11/1998</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,43 +4360,91 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>Parque Cementerio Santa Cruz</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Inversiones Torre Alameda S.A.</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>520</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>29/01/1998</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=724&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>Explotación Mina de Caliza Sector La Lajuela-Santa Cruz</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>Cementos Bio Bio S.A.C.I</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="F85" t="n">
         <v>2000</v>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>28/05/1997</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=82&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>Santa Cruz</t>
         </is>

--- a/data/Santa Cruz.xlsx
+++ b/data/Santa Cruz.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/05/2023</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Santa Cruz.xlsx
+++ b/data/Santa Cruz.xlsx
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03/07/2020</t>
+          <t>02/07/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">

--- a/data/Santa Cruz.xlsx
+++ b/data/Santa Cruz.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/05/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159176557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160724419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mejoras al Sistema de Tratamiento de RILes Bodega Clos Apalta</t>
+          <t>Extracción Mecanizada de Áridos en río Tinguiririca, comunas de Nancagua y Santa Cruz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Clos Apalta SpA</t>
+          <t>Maquinarias Tierra del Valle Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/04/2023</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158952223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159176557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta Solar Santa Cruz</t>
+          <t>Mejoras al Sistema de Tratamiento de RILes Bodega Clos Apalta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Clos Apalta SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>21/04/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148365616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158952223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optimización Planta Sunsweet</t>
+          <t>Planta Solar Santa Cruz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Agricola Sun Limitada</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3250</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148365616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta Solar Santa Cruz</t>
+          <t>Optimización Planta Sunsweet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Grupo Energy inversiones Spa</t>
+          <t>Agricola Sun Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147453318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>02/07/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147117003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147453318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Servicio de Bodegajes de suspel y no peligrosas en bodegas adyacentes</t>
+          <t>Planta Solar Santa Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>New Tech Agro S.A.</t>
+          <t>Grupo Energy inversiones Spa</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>350</v>
+        <v>6500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13/03/2020</t>
+          <t>02/07/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145894867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147117003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN DE PRODUCTOS MAQUILADOS, Y NORMALIZACIÓN PLANTA EL BOLDAL</t>
+          <t>Servicio de Bodegajes de suspel y no peligrosas en bodegas adyacentes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17/07/2018</t>
+          <t>13/03/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140909394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145894867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>AUMENTO DE PRODUCCIÓN DE PRODUCTOS MAQUILADOS, Y NORMALIZACIÓN PLANTA EL BOLDAL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>New Tech Agro S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>17/07/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140909394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,21 +875,21 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,11 +923,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Santa Cruz</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1100</v>
+        <v>37</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132410104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Santa Cruz</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>37</v>
+        <v>1100</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>22/05/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132410104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Diversificación Mejora Ambiental y Normalización de Planta el Boldal</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>New Tech Agro S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>03/08/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131654067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Diversificación, Mejora Ambiental y Normalización de Planta el Boldal</t>
+          <t>Diversificación Mejora Ambiental y Normalización de Planta el Boldal</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,21 +1115,21 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>457</v>
+        <v>356</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13/07/2016</t>
+          <t>03/08/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131581894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131654067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico La Lajuela</t>
+          <t>Diversificación, Mejora Ambiental y Normalización de Planta el Boldal</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>New Tech Agro S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>13000</v>
+        <v>457</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>13/07/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131496825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131581894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación de la planta de tratamiento de riles de Viña Neyen</t>
+          <t>Parque Solar Fotovoltaico La Lajuela</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ALTO DE CASABLANCA S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>13000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/02/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131186823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131496825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>22/02/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131098449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131186823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento, Isla del Guindo Chomedahue</t>
+          <t>Modificación de la planta de tratamiento de riles de Viña Neyen</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Santa Cruz</t>
+          <t>ALTO DE CASABLANCA S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131098449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos para Riego Tecnificado de Vides</t>
+          <t>Planta de Tratamiento, Isla del Guindo Chomedahue</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Apalta Limitada</t>
+          <t>Ilustre Municipalidad de Santa Cruz</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130398781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos para Riego Tecnificado de Vides</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130398781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sistema de Disposición de RILes al Suelo</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21/04/2014</t>
+          <t>23/03/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129403850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>21/04/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129120974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129403850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SALA DE VENTAS Y BODEGA SUCURSAL COAGRA SANTA CRUZ</t>
+          <t>Sistema de Disposición de RILes al Suelo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>COAGRA S.A.</t>
+          <t>Sociedad de Inversiones y Servicios Apalta Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/12/2013</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129120974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/12/2013</t>
+          <t>17/12/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128896777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sistema de Disposición de Residuos Industriales Líquidos al Suelo</t>
+          <t>SALA DE VENTAS Y BODEGA SUCURSAL COAGRA SANTA CRUZ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Apalta Limitada</t>
+          <t>COAGRA S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>02/10/2013</t>
+          <t>10/12/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128634948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128896777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Sistema de Disposición de Residuos Industriales Líquidos al Suelo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sociedad de Inversiones y Servicios Apalta Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>02/10/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128634948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Riles y a la disposición del efluente a Riego</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ALTO DE CASABLANCA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/10/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7465875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación al Sistema de Tratamiento de Riles y a la disposición del efluente a Riego</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>ALTO DE CASABLANCA S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>26/10/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7465875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta de Secadores Cunaquito - Fase II</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Agricola Sun Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>13700</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>28/02/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Planta de Secadores Cunaquito - Fase II</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agricola Sun Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>13700</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>28/02/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Optimización Sistema de tratamiento y disposición en suelo de los residuos industriales líquidos de Viña Nuevo Mundo S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Viña del Nuevo Mundo S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3635967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Laurence Real .</t>
+          <t>Viña del Nuevo Mundo S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/03/2009</t>
+          <t>18/03/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3612110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3635967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Optimización Sistema de tratamiento y disposición en suelo de los residuos industriales líquidos de Viña Nuevo Mundo S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Laurence Real .</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>06/03/2009</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3612110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Canales Primarios, Nilahue (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>8521</v>
+        <v>500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2626812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos de Viña La Pancora Ltda. (e-seia)</t>
+          <t>Canales Primarios, Nilahue (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Viña Apaltagua Limitada</t>
+          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>500</v>
+        <v>8521</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2626812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos de Viña La Pancora Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Viña Apaltagua Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,21 +2939,21 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Optimización Sistema de Tratamiento de Riles, Bodega Cunaco (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Lapostolle Winnes SpA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1831772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Optimización Sistema de Tratamiento de Riles, Bodeguita Apalta (e-seia)</t>
+          <t>Optimización Sistema de Tratamiento de Riles, Bodega Cunaco (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Clos Apalta SpA</t>
+          <t>Lapostolle Winnes SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17/11/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1811372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1831772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Obras de Regadío Embalse Convento Viejo - Proyecto Túnel La Lajuela (e-seia)</t>
+          <t>Optimización Sistema de Tratamiento de Riles, Bodeguita Apalta (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
+          <t>Clos Apalta SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6500</v>
+        <v>9</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>17/11/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1811372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de Riles (e-seia)</t>
+          <t>Obras de Regadío Embalse Convento Viejo - Proyecto Túnel La Lajuela (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ALTO DE CASABLANCA S.A.</t>
+          <t>Sociedad Concesionaria Embalse Convento Viejo S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>93</v>
+        <v>6500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21/09/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR DE SANTA CRUZ (e-seia)</t>
+          <t>Sistema de tratamiento de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE SANTA CRUZ</t>
+          <t>ALTO DE CASABLANCA S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/08/2006</t>
+          <t>21/09/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1627797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR DE SANTA CRUZ (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ILUSTRE MUNICIPALIDAD DE SANTA CRUZ</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>16/08/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1627797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo Viña Viu Manent y Cía. Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Viu Manent y Cía.Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>21/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo Viña Viu Manent y Cía. Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Viu Manent y Cía.Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>21/10/2005</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sistema de tratamiento de riles bodeguita apalta, casa lapostolle, sexta region (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Jose Manuel Rogers Squella</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>03/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>sistema de tratamiento de riles bodeguita apalta, casa lapostolle, sexta region (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Jose Manuel Rogers Squella</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>03/08/2005</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Manejo de Riles bodega de Vinos San José de Apalta (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Viña Apaltagua Limitada</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>29/10/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=109723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,12 +3880,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Convento Viejo Etapa II</t>
+          <t>Manejo de Riles bodega de Vinos San José de Apalta (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Viña Apaltagua Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>50300</v>
+        <v>1750</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>14/08/2003</t>
+          <t>29/10/2003</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=109723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos de Colchagua</t>
+          <t>Convento Viejo Etapa II</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>STARCO S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2000</v>
+        <v>50300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>14/08/2003</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,12 +3976,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Viña Montes Bodega Apalta (e-seia)</t>
+          <t>Centro de Manejo de Residuos de Colchagua</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>STARCO S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES Bodeguita APALTA (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Viña Montes Bodega Apalta (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Clos Apalta SpA</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>23000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>27/12/2002</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tratamiento y Depuración de las Aguas Residuales Líquidas de las Bodegas de la Viña Casa Lapostolle</t>
+          <t>Sistema de Tratamiento de RILES Bodeguita APALTA (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Lapostolle Winnes SpA</t>
+          <t>Clos Apalta SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12/09/2000</t>
+          <t>27/12/2002</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento y Disposición de Residuos Industriales Líquidos Viña Santa Laura</t>
+          <t>Tratamiento y Depuración de las Aguas Residuales Líquidas de las Bodegas de la Viña Casa Lapostolle</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Comercial Santa Laura S.A.</t>
+          <t>Lapostolle Winnes SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18/08/2000</t>
+          <t>12/09/2000</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,12 +4168,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Parque Cementerio Santa Cruz Tercera Presentación</t>
+          <t>Sistema de Tratamiento y Disposición de Residuos Industriales Líquidos Viña Santa Laura</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>Comercial Santa Laura S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>18/08/2000</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,12 +4216,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Bodega Viníficadora San José de Apalta</t>
+          <t>Parque Cementerio Santa Cruz Tercera Presentación</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Viña Apaltagua Limitada</t>
+          <t>Inversiones Torre Alameda S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas para Santa Cruz</t>
+          <t>Bodega Viníficadora San José de Apalta</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Viña Apaltagua Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>18/06/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Parque Cementerio Santa Cruz (Segunda Presentación)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas para Santa Cruz</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>540</v>
+        <v>1500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>02/11/1998</t>
+          <t>18/06/1999</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Parque Cementerio Santa Cruz</t>
+          <t>Parque Cementerio Santa Cruz (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4379,21 +4379,21 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>29/01/1998</t>
+          <t>02/11/1998</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,43 +4408,91 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>Parque Cementerio Santa Cruz</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Inversiones Torre Alameda S.A.</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>520</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>29/01/1998</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=724&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>Explotación Mina de Caliza Sector La Lajuela-Santa Cruz</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>Cementos Bio Bio S.A.C.I</t>
         </is>
       </c>
-      <c r="F85" t="n">
+      <c r="F86" t="n">
         <v>2000</v>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>28/05/1997</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=82&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>Santa Cruz</t>
         </is>

--- a/data/Santa Cruz.xlsx
+++ b/data/Santa Cruz.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
